--- a/Base/Teams/Raiders/Players Data.xlsx
+++ b/Base/Teams/Raiders/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Raiders/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_50F169C3AD21086741B13037F5EA4577E1B3E3CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D478BD4A-AC02-44A4-86CA-FBD23039B5A8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -42,9 +48,6 @@
   </si>
   <si>
     <t>J.Jacobs</t>
-  </si>
-  <si>
-    <t>K.Drake</t>
   </si>
   <si>
     <t>P.Barber</t>
@@ -101,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +168,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -211,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,6 +306,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,14 +499,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,7 +545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -516,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,7 +605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -564,19 +613,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -584,19 +633,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -607,16 +656,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -624,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -633,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -644,19 +693,19 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -664,10 +713,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -676,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -684,35 +733,15 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -722,37 +751,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -778,7 +809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -786,25 +817,25 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -812,25 +843,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -838,16 +869,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -856,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -864,25 +895,25 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -890,25 +921,25 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
       <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -916,103 +947,103 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>12</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1020,25 +1051,25 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1046,47 +1077,21 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Raiders/Players Data.xlsx
+++ b/Base/Teams/Raiders/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Raiders/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_50F169C3AD21086741B13037F5EA4577E1B3E3CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D478BD4A-AC02-44A4-86CA-FBD23039B5A8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -48,6 +42,9 @@
   </si>
   <si>
     <t>J.Jacobs</t>
+  </si>
+  <si>
+    <t>K.Drake</t>
   </si>
   <si>
     <t>P.Barber</t>
@@ -104,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +165,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -222,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,27 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,24 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,16 +452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -533,10 +484,10 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>8</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -545,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -565,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -585,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -593,19 +544,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -613,19 +564,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -633,19 +584,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -656,16 +607,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -673,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -682,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -693,19 +644,19 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -713,10 +664,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -725,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -733,15 +684,35 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -751,39 +722,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -791,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -809,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -817,16 +786,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -835,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -843,25 +812,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -869,16 +838,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -887,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -895,25 +864,25 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -921,25 +890,25 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -947,103 +916,103 @@
         <v>14</v>
       </c>
       <c r="C8">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="D8">
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1051,25 +1020,25 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
       <c r="H12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1077,21 +1046,47 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Raiders/Players Data.xlsx
+++ b/Base/Teams/Raiders/Players Data.xlsx
@@ -544,10 +544,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -760,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="C2">
+        <v>47</v>
+      </c>
+      <c r="D2">
         <v>41</v>
-      </c>
-      <c r="D2">
-        <v>36</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -896,7 +896,7 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -916,10 +916,10 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D8">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>13</v>
@@ -928,10 +928,10 @@
         <v>9</v>
       </c>
       <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
         <v>11</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -942,13 +942,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -994,13 +994,13 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1046,10 +1046,10 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -1058,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>4</v>

--- a/Base/Teams/Raiders/Players Data.xlsx
+++ b/Base/Teams/Raiders/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>D.Carrier</t>
+  </si>
+  <si>
+    <t>D.Helm</t>
   </si>
 </sst>
 </file>
@@ -484,16 +487,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -507,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -544,13 +547,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>21</v>
@@ -584,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -723,7 +726,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -760,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -812,10 +815,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -824,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -890,10 +893,10 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>23</v>
@@ -902,10 +905,10 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -916,10 +919,10 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>13</v>
@@ -928,10 +931,10 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -942,13 +945,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -994,13 +997,13 @@
         <v>16</v>
       </c>
       <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
       <c r="E11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1046,10 +1049,10 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -1087,6 +1090,32 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Raiders/Players Data.xlsx
+++ b/Base/Teams/Raiders/Players Data.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Raiders/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_DC340A8B49C69F2279912537F5EA4577E132B622" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA11FB98-3928-48BE-984D-C2580BCFF110}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -104,8 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +174,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -214,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +260,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,6 +312,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,14 +505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -487,19 +537,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -519,7 +569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -547,19 +597,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -579,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -587,19 +637,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -613,13 +663,13 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -639,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -659,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -679,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -699,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -725,14 +775,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -763,10 +815,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -781,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -807,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -815,10 +867,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -833,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -841,10 +893,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -859,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -885,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -911,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -919,10 +971,10 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>13</v>
@@ -931,13 +983,13 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -945,10 +997,10 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>18</v>
@@ -963,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -989,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -997,10 +1049,10 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -1015,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1023,25 +1075,25 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1049,16 +1101,16 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -1067,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1093,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>

--- a/Base/Teams/Raiders/Players Data.xlsx
+++ b/Base/Teams/Raiders/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Raiders/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_DC340A8B49C69F2279912537F5EA4577E132B622" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA11FB98-3928-48BE-984D-C2580BCFF110}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -93,9 +87,6 @@
   </si>
   <si>
     <t>W.Snead</t>
-  </si>
-  <si>
-    <t>D.Waller</t>
   </si>
   <si>
     <t>F.Moreau</t>
@@ -110,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,14 +165,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -228,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,27 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,24 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,14 +452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -549,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -560,16 +507,16 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -589,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -597,19 +544,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -629,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -637,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -649,7 +596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -663,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -689,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -709,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -729,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -737,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -749,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -775,16 +722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -815,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -833,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -859,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -867,11 +812,11 @@
         <v>10</v>
       </c>
       <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -879,13 +824,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -893,10 +838,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -911,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -937,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -945,7 +890,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -963,7 +908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -971,25 +916,25 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D8">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -997,16 +942,16 @@
         <v>15</v>
       </c>
       <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
         <v>30</v>
       </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1015,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1041,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1049,13 +994,13 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1067,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1075,25 +1020,25 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1101,25 +1046,25 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1127,10 +1072,10 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1142,32 +1087,6 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Raiders/Players Data.xlsx
+++ b/Base/Teams/Raiders/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>W.Snead</t>
+  </si>
+  <si>
+    <t>D.Waller</t>
   </si>
   <si>
     <t>F.Moreau</t>
@@ -490,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -504,16 +507,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -544,16 +547,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D5">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -610,10 +613,10 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -667,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -723,7 +726,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -760,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -772,10 +775,10 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -838,10 +841,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -890,19 +893,19 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -916,22 +919,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D8">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -942,22 +945,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -994,19 +997,19 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1020,22 +1023,22 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1046,22 +1049,22 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1072,10 +1075,10 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1087,6 +1090,32 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>
